--- a/model/src/rag_zero_shot_prompting_medium_Llama3B_results.xlsx
+++ b/model/src/rag_zero_shot_prompting_medium_Llama3B_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72D3654-DAF8-48C5-85FE-9069BF3288DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83528FE-2AA1-4A67-A6AB-BD80EFD39229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
   <si>
     <t>question</t>
   </si>
@@ -382,15 +382,6 @@
 Metadata: {'course_name': 'Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics', 'degree': 'masters', 'doc_type': 'main_info', 'id': 'a0b117d5-b0ef-47f1-9928-b8032b40ce1b', 'section': 'Goals'}</t>
   </si>
   <si>
-    <t>Document 1:
-Postgraduate Program In Marketing Intelligence postgraduate Introduction
-The Postgraduate in Marketing Intelligence aims to train experts and managers able to lead and guide the collection, compilation, analysis and dissemination of marketing information in organizations. It provides a balanced curriculum with two components: one based on tools and methodologies of marketing management, and the other supported by methodologies and techniques of information analysis and management. This Postgraduate gives access to the Master Degree in Data-Driven Marketing , with a specialization in Marketing Intelligence, offered in working hours or after working hour formats. It is ranked as the best in Retail Sales Management &amp; Business Development in Portugal and the 4 th best in the World by Eduniversal, an international agency that publishes an annual ranking of the best MBA and Master degree in the world. The applications for this are open between March 10 th and April 10 th , 2025. EDUNIVERSAL Ranked as the best in Portugal and the 4 th best in the World in Retail Sales Management &amp; Business Development , according to Eduniversal Format After working hours Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date September 2025 Support and Funding https://recuperarportugal.gov.pt/
-Metadata: {'course_name': 'Postgraduate Program In Marketing Intelligence', 'degree': 'postgraduate', 'doc_type': 'main_info', 'id': '421ad33d-2d4d-4979-86c7-3c69535a814a', 'section': 'Introduction'}
-Document 2:
-Postgraduate Program In Marketing Intelligence postgraduate First Semester 1 st year - Fall Semester Course Units Type Duration ECTS Brand Management Mandatory Quarterly 3,5 Digital Marketing &amp; E-Commerce Mandatory Semester 7,5 Marketing Strategy and Innovation Mandatory Semester 7,5 Applied Network Analysis Elective Semester 7,5 Business Intelligence I Elective Semester 7,5 Business Process Management Elective Semester 7,5 Data Privacy, Security and Ethics Elective Quarterly 4 Data Science for Marketing Elective Semester 7,5 Descriptive Analytics in Marketing Elective Semester 7,5 Digital Analytics Elective Semester 7,5 Experimental Design Elective Quarterly 4 Information Management Systems Elective Quarterly 3,5 Information Technologies Services Management Elective Quarterly 4 Social Network Analysis Elective Quarterly 3,5 Transformação Digital Elective Semester 7,5Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
-Metadata: {'course_name': 'Postgraduate Program In Marketing Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '428feedc-5620-4302-81f4-1deaa9a8c17a', 'source': 'postgraduate-program-in-marketing-intelligence_Study plan.txt'}</t>
-  </si>
-  <si>
     <t>Is a degree in artificial intelligence necessary to apply for the Master's in Data Science?</t>
   </si>
   <si>
@@ -441,21 +432,6 @@
 Metadata: {'course_name': 'Postgraduate Program In Geospatial Data Science', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '24e05b2b-6c92-4895-a897-e30c722225ae', 'source': 'postgraduate-program-in-geospatial-data-science_Study plan.txt'}</t>
   </si>
   <si>
-    <t>Is a degree in statistics necessary to apply for the postgraduate program in geospatial data science?</t>
-  </si>
-  <si>
-    <t>No, a degree in statistics is not necessarily required to apply for the postgraduate program in geospatial data science.</t>
-  </si>
-  <si>
-    <t>Document 1:
-Postgraduate Program In Geospatial Data Science postgraduate Introduction
-The Postgraduate in Geospatial Data Science provides the necessary skills for the analysis, modeling, and visualization of geographic information , and aims to train professionals for the role of artificial intelligence, programming, and data mining in the development of solutions to challenges and societal problems in the public and private sectors. This is developed in collaboration with UNIGIS , an international network that brings together the best schools in Geographic Information Systems and Science and it gives access to the Geospatial Intelligence (GEOINT) certificate accredited by the United States Geospatial Intelligence Foundation (USGIF). This Postgraduate lasts two semesters, taught in b-learning or e-learning formats , and it gives access to the Master Degree in Geographic Information Systems and Science . The applications for this are open between March 10 th and April 10 th , 2025. Accredited by United States Geospatial Intelligence Foundation Partner Entity UNIGIS Format E-Learning and B-Learning Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date September 2025 Who is it for? The Postgraduate in Geospatial Data Science aims to train managers and staff able to analyze, modeling, and visualize geographic information in environments with large amounts of data. This is taught in Portuguese and aims at everyone from Portuguese-speaking African countries but also Portugal, Brazil, Timor, and Portuguese communities all over the world, who is interested in continuing their studies by getting a Postgraduate diploma and/or a master's degree in a Portuguese university.
-Metadata: {'degree': 'postgraduate', 'doc_type': 'main_info', 'course_name': 'Postgraduate Program In Geospatial Data Science', 'section': 'Introduction', 'id': '13898ac4-a1ec-49d9-9c29-50854d300c9c'}
-Document 2:
-Postgraduate Program In Statistical Systems With A Specialization In Official Statistics postgraduate Study plan To earn the diploma, students must complete 60 ECTS. The course units will be chosen by the student from the folllowing course units offered in this program: Course Units Analysis of Discrete Data Analysis of Variance Business Intelligence Computational Statistics I Computational Statistics II Data Collection, Administrative Sources and Big Data Data Management for Official Statistics Data Mining I Data Mining II Databases Management Econometrics Methods External Statistics and Globalization Financial Reporting Forecasting Methods Monetary and Financial Statistics Multivariate Data Analysis National Accounts Sampling and Estimation Statistical Comunication Statistical Treatment of Data Time Series Analysis Course Unit See Detailed Study Plan The postgraduate program gives access to the Master Degree in Statistics and Information Management, with a specialization in Information Analysis and Management . The students must enroll in the mandatory course units of the specialization, including the course unit Research Methodologies in the 2 nd year. To earn the master’s degree, students must present a thesis or a work project or an internship report in the third semester, which corresponds to 35 additional credits. This program gives access to the EMOS (European Master in Official Statistics) certification , awarded by the European Statistical System (ESS) to students who follow a specific pre-defined path of studies.Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
-Metadata: {'course_name': 'Postgraduate Program In Statistical Systems With A Specialization In Official Statistics', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': 'fd1b130d-7e5f-4329-9d72-4d50ac52c4ed', 'source': 'postgraduate-program-in-statistical-systems-with-a-specialization-in-official-statistics_Study plan.txt'}</t>
-  </si>
-  <si>
     <t>Who is the target applicant for the postgraduate program in data science for marketing?</t>
   </si>
   <si>
@@ -473,9 +449,6 @@
   </si>
   <si>
     <t>Can professionals without a prior degree in management enroll in the Master Degree In Information Management With A Specialization In Information Systems Management?</t>
-  </si>
-  <si>
-    <t>No, the Master Degree in Information Management, with a specialization in Information Systems Management, requires a prior degree in a relevant field.</t>
   </si>
   <si>
     <t>Document 1:
@@ -651,18 +624,6 @@
     <t>How is the Bachelors in Data Science curriculum structured across the 1 year of the second semester in terms of theoretical vs practical learning?</t>
   </si>
   <si>
-    <t>The Data Science bachelor's curriculum in the second semester consists of:
-Mandatory Courses:
-• Introduction to Artificial Intelligence (TP - 67.5 | OT - 15)
-• Introduction to Computational Thinking and Data Science (TP - 45 | OT - 5)
-• Mathematical Analysis I (T - 22.5 | PL - 45 | OT - 7.5)
-• Mathematical Analysis II (T - 22.5 | PL - 45 | OT - 7.5)
-• Personal Development I (TP - 22.5 | OT - 7.5)
-Elective Courses:
-None listed for the second semester.
-Note: Some courses appear in both "mandatory" and "elective" categories due to being available in both semesters. These are included in both lists. For further details, please refer to the official course page.</t>
-  </si>
-  <si>
     <t>Document 1:
 Data Science bachelor Second Semester 1 st year - Spring Semester Course Units Duration Type Contact Hours Total Workload ECTS Algorithms and Data Structures Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Introduction to Artificial Intelligence Semester Mandatory TP - 67,5 | OT - 15 140 5 Introduction to Computational Thinking and Data Science Semester Mandatory TP - 45 | OT - 5 112 4 Mathematical Analysis I ** Semester Mandatory T - 22,5 | PL - 45 | OT - 7,5 140 5 Mathematical Analysis II ** Semester Mandatory T - 22,5 | PL - 45 | OT - 7,5 196 7 Personal Development I Semester Mandatory TP - 22,5 | OT - 7,5 56 2 Statistics and Probability Distributions Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Show subtitles T – Theoretical Teaching; TP – Theoretical/ Practical Teaching; TC – Field Work; PL – Theoretical/ Practical Teaching; S – Seminar; OT – Tutor Group; ** – Course Unit available in both semesters; Semestre 1 - 2;Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
 Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'study_plan', 'id': 'cd9747e8-2cb5-436d-b793-0d1e0e218df6', 'source': 'bachelor_data-science_studyplan_text.txt'}
@@ -670,30 +631,6 @@
 Data Science bachelor Who is it for?
 This degree is intended for all final-year students who aspire to become data scientists. Thus, the study cycle is suitable for all students who wish to obtain in-depth training in the most recent techniques of data science and artificial intelligence, based on automatic logical reasoning, data management methods and techniques, as well as machine learning applications. The course aims to train highly specialized professionals who will enable organizations to take advantage of the huge volume of data they currently have at their disposal. Program Goals The bachelor's degree in Data Science aims to strengthen the intermediate step between data collection and decision making based on them, i.e. to develop advanced methods of data science and artificial intelligence. To this end, the course of study adopts a primarily technical perspective. The goal is to provide in-depth knowledge of the fundamental methodologies and concepts, in order to provide the student with the ability to update more specific technical knowledge and to keep up with the rapid evolution of this sector. In this context, the graduate in Data Science should: Understand the theoretical foundations of statistics, Machine Learning and Artificial Intelligence methods; Identify and understand the most efficient algorithm for each specific problem; Design and develop state-of-the-art data science algorithms; Work closely with IT specialists to integrate Data Science algorithms into existing systems; Identify underlying patterns and extract useful information from the large volume of heterogeneous data that exists in organizations; Be proficient in commonly used statistical procedures, frameworks, machine learning techniques and systems; Stimulate interest in keeping up with scientific advances in the field of Data Science and Artificial Intelligence. Program Structure The course lasts 3 years (6 semesters) and classes start in September 2025. The study plan corresponds to 180 ECTS, of which 150 ECTS correspond to mandatory curricular units (the first 5 semesters) and 30 ECTS correspond to optional curricular units (last semester of the course), which will be chosen by each Student, from among a wide range of curricular units available.
 Metadata: {'degree': 'bachelor', 'doc_type': 'main_info', 'course_name': 'Data Science', 'section': 'Who is it for?', 'id': 'c523079a-add4-4033-9c75-5201d07a015c'}</t>
-  </si>
-  <si>
-    <t>How many total ECTS are covered in each academic year in the Bachelors in Data Science?</t>
-  </si>
-  <si>
-    <t>The Bachelor's degree in Data Science has a total of 180 ECTS. This is distributed over 6 semesters, with 150 ECTS corresponding to mandatory curricular units in the first 5 semesters and 30 ECTS corresponding to optional curricular units in the last semester. Therefore, the total ECTS per semester would be:
-* Semesters 1-5: 150 ECTS / 5 = 30 ECTS per semester
-* Semester 6: 30 ECTS
-Note that the provided information does not specify the exact number of ECTS per semester for the first 5 semesters. However, we can infer that the remaining 30 ECTS for the last semester are allocated across the 5 semesters.</t>
-  </si>
-  <si>
-    <t>Document 1:
-Data Science bachelor Who is it for?
-This degree is intended for all final-year students who aspire to become data scientists. Thus, the study cycle is suitable for all students who wish to obtain in-depth training in the most recent techniques of data science and artificial intelligence, based on automatic logical reasoning, data management methods and techniques, as well as machine learning applications. The course aims to train highly specialized professionals who will enable organizations to take advantage of the huge volume of data they currently have at their disposal. Program Goals The bachelor's degree in Data Science aims to strengthen the intermediate step between data collection and decision making based on them, i.e. to develop advanced methods of data science and artificial intelligence. To this end, the course of study adopts a primarily technical perspective. The goal is to provide in-depth knowledge of the fundamental methodologies and concepts, in order to provide the student with the ability to update more specific technical knowledge and to keep up with the rapid evolution of this sector. In this context, the graduate in Data Science should: Understand the theoretical foundations of statistics, Machine Learning and Artificial Intelligence methods; Identify and understand the most efficient algorithm for each specific problem; Design and develop state-of-the-art data science algorithms; Work closely with IT specialists to integrate Data Science algorithms into existing systems; Identify underlying patterns and extract useful information from the large volume of heterogeneous data that exists in organizations; Be proficient in commonly used statistical procedures, frameworks, machine learning techniques and systems; Stimulate interest in keeping up with scientific advances in the field of Data Science and Artificial Intelligence. Program Structure The course lasts 3 years (6 semesters) and classes start in September 2025. The study plan corresponds to 180 ECTS, of which 150 ECTS correspond to mandatory curricular units (the first 5 semesters) and 30 ECTS correspond to optional curricular units (last semester of the course), which will be chosen by each Student, from among a wide range of curricular units available.
-Metadata: {'degree': 'bachelor', 'doc_type': 'main_info', 'course_name': 'Data Science', 'section': 'Who is it for?', 'id': 'c523079a-add4-4033-9c75-5201d07a015c'}
-Document 2:
-Data Science bachelor First Semester 3 rd year - Fall Semester Course Units Duration Type Contact Hours Total Workload ECTS Big Data Analysis Semester Mandatory TP - 67,5 | OT - 15 168 6 Capstone Project Semester Mandatory TP - 22,5 | OT - 45 224 8 Deep Learning Semester Mandatory TP - 67,5 | OT - 15 168 6 Ethical, Social and Legal Aspects of Artificial Intelligence Semester Mandatory TP - 22,5 | OT - 7,5 56 2 Personal Development II Semester Mandatory TP - 22,5 | OT - 7,5 56 2 Text Mining Semester Mandatory TP - 45 | OT - 12,5 168 6 Show subtitles T – Theoretical Teaching; TP – Theoretical/ Practical Teaching; TC – Field Work; PL – Theoretical/ Practical Teaching; S – Seminar; OT – Tutor Group; ** – Course Unit available in both semesters;Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
-Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'study_plan', 'id': 'c96a8f33-6d31-4583-abaa-897804dc02b1', 'source': 'bachelor_data-science_studyplan_text.txt'}</t>
-  </si>
-  <si>
-    <t>How many ECTS are allocated to Statistics and Probability Distributions in the Bachelors in Data Science?</t>
-  </si>
-  <si>
-    <t>Statistics and Probability Distributions has 168 ECTS.</t>
   </si>
   <si>
     <t>Document 1:
@@ -794,12 +731,6 @@
 Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'main_info', 'id': '6f8a6a4b-7e8e-469e-a295-3e1b2eb1478d', 'section': 'Introducion'}</t>
   </si>
   <si>
-    <t>How much does the entry exams value to enter the Bachelors in Data Science?</t>
-  </si>
-  <si>
-    <t>The minimum grade required to enter the Bachelor's degree in Data Science is 100, and the entry exam grade is 95. There is no mention of an entry exam value.</t>
-  </si>
-  <si>
     <t>Document 1:
 Data Science bachelor Admissions and Fees
 Establishment Code: 0906 - Universidade Nova de Lisboa - Instituto Superior de Estatística e Gestão de Informação Course Code: L188 Entry Exam Subjects (One of the following): 19 - Mathematics A and 02 - Biology and Geology 19 - Mathematics A and 04 - Economy 19 - Mathematics A and 07 - Physics and Chemistry 19 - Mathematics A and 09 - Geography 19 - Mathematics A and 10 - Descriptive Geometry 19 - Mathematics A and 18 - Portuguese NOTICE: The exams presented are valid for admissions in the 2025/26 academic year, through the National Competition for Access to Higher . Minimum Grades Applicants Grade: 100 Entry Exam Grade: 95 Formula of Applicants Grade Secondary School Grade: 50% Entry Exam Subjects: 50% Prerequesites None Vacancies 45 General Quota Last Entry Grade 2024-2025 1 st Phase - 17.78 2025/26 Academic Year Consult the entrance exams applicable to 2025/26 in the Frequently Asked Questions. Achievement Awards (*) Prize corresponding to the 1 st year tuition fee. The undergraduate students who achieve a high level of academic performance each year will have access to the following awards (1) : Approved ECTS Average (Values) Award At the end of the 1 st year of Enrollment equal or greater than 60 equal or greater than 16,5 700€ At the end of the 2 nd year of Enrollment equal or greater than 120 equal or greater than 16,5 700€ At the end of the 3 rd year of Enrollment equal or greater than 180 equal or greater than 16,5 €3.000 off (2) (1) Prize applied to students admitted in 2024/2025. (2) The value of the tuition for a master's degree to be attended at the NOVA IMS, if admission and enrollment occur in the year immediately following the completion of the bachelor's degree. Not cumulative with Alumni discount. Cumulative with financial discount. Excellence awards given by the Members of AD NOVA IMS and other supportive entities (3) All students that stand out, during their academic path, for their academic excellence in the different course units and are also awarded. (3) Prizes in force in the school year 2023/24. Supportive Entities Best student of the Course Unit €1.000 Best Student of Undergraduate and Master Degree Scholarship with Value to be Defined Best Application Grade €1.000 Tuition Fee The annual fee set for the academic year 2024/25, for the students of the National Contest for Access to Higher , is €697. This payment can be paid in full or in 10 instalments. For the students of the International Student Contest, the annual fee for the academic year 2024/25, is €7.500. This payment can also be paid in full or in 5 instalments. The Student (national or international), when registering for a school year, has to take into account that the full payment of the tuition fee fixed for that school year (the monthly fees/benefits are a payment facility), even if they cancel the registration/withdraw of the course.
@@ -940,12 +871,6 @@
 Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'main_info', 'id': '1aa96969-c5aa-4a36-b3be-daa197b1ce14', 'section': 'What is the cost of the tuition and enrollment fee for the students of the International Student Contest?'}</t>
   </si>
   <si>
-    <t>What are the entry requeirements for the postgraduate program in digital transformation?</t>
-  </si>
-  <si>
-    <t>Unfortunately, I do not have information on the entry requirements for the Postgraduate Program in Digital Transformation. Please refer to the official website or contact NOVA IMS directly for further information.</t>
-  </si>
-  <si>
     <t>Document 1:
 Postgraduate Program In Digital Transformation postgraduate Introduction
 The Postgraduate in Digital Transformation recognizes the significance of digital transformation in today's business world. The aims to strengthen NOVA IMS's training offering in this area by focusing on the exploration of technological advancements and processes that can help organizations enhance their competitive advantage through the transformation or development of their business models. As digital transformation becomes increasingly crucial for companies to remain relevant and competitive, the importance of training in this area cannot be overstated. By participating in this , professionals will gain a deeper understanding and competences of how to leverage technology to drive business growth and create new opportunities. This Postgraduate gives access to the Master's Degree in Information Management, with a specialization in Digital Transformation . The applications for this are open between March 10 th and April 10 th , 2025. Format After working hours Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date September 2025 Who is it for? Digital transformation is an ongoing process that involves using technology to fundamentally change the way organizations operate and deliver to customers. This is designed for individuals who want to gain a comprehensive understanding of digital transformation and its impact on various industries. Whether you're a recent graduate in the fields of engineering, management, or technology or an experienced professional looking to expand your knowledge, this specialization will provide you with the skills and insights you need to help organizations navigate the challenges and opportunities of digital transformation. Through a combination of hands-on projects, expert lectures, and interactive discussions, you'll explore cutting-edge technologies and processes that are driving digital transformation and learn how to assess their potential impact on your organization. By the end of the , you'll have a deep understanding of how digital transformation is shaping the future of work and be well-equipped to play a leading role in your organization's journey towards a more digital future.
@@ -1103,21 +1028,6 @@
   </si>
   <si>
     <t>Average Faithfulness score</t>
-  </si>
-  <si>
-    <t>GERAR NOVAMENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reescrever esta pergunta de forma a capturar os documentos certos </t>
-  </si>
-  <si>
-    <t>CHANGE QUESTION</t>
-  </si>
-  <si>
-    <t>MUDAR A PENAS A PERGUNRA PARA UM CURSO QUE NÃO EXISTE</t>
-  </si>
-  <si>
-    <t>Yes, the 20% discount for NOVA IMS alumni can be combined with the 2.5% financial discount, but only if the student pays the tuition fee in a single payment. The 10% discount for companies financing up to 2 employees is not cumulative with other discounts. The 20% discount for companies financing 3 or more employees is also not cumulative with other discounts.</t>
   </si>
   <si>
     <t xml:space="preserve"> The first year of the Postgraduate Program in Marketing Intelligence is structured as follows:
@@ -1166,13 +1076,95 @@
     <t>How is the academic 1st year of the postgraduate program in marketing intelligence structured across the fall and spring semesters?</t>
   </si>
   <si>
-    <t>Meter os novos docs</t>
-  </si>
-  <si>
     <t>The classes for the Master Degree in Data-Driven Marketing, with a specialization in Marketing Intelligence, are available both during working hours and in the evening.</t>
   </si>
   <si>
-    <t>mudar para entry exam subjects</t>
+    <t>Document 1:
+Postgraduate Program In Marketing Intelligence postgraduate First Semester 1 st year - Fall Semester Course Units Type Duration ECTS Brand Management Mandatory Quarterly 3,5 Digital Marketing &amp; E-Commerce Mandatory Semester 7,5 Marketing Strategy and Innovation Mandatory Semester 7,5 Applied Network Analysis Elective Semester 7,5 Business Intelligence I Elective Semester 7,5 Business Process Management Elective Semester 7,5 Data Privacy, Security and Ethics Elective Quarterly 4 Data Science for Marketing Elective Semester 7,5 Descriptive Analytics in Marketing Elective Semester 7,5 Digital Analytics Elective Semester 7,5 Experimental Design Elective Quarterly 4 Information Management Systems Elective Quarterly 3,5 Information Technologies Services Management Elective Quarterly 4 Social Network Analysis Elective Quarterly 3,5 Transformação Digital Elective Semester 7,5Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
+Metadata: {'course_name': 'Postgraduate Program In Marketing Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '428feedc-5620-4302-81f4-1deaa9a8c17a', 'source': 'postgraduate-program-in-marketing-intelligence_Study plan.txt'}
+Document 2:
+Postgraduate Program In Marketing Intelligence postgraduate Second Semester 1 st year - Spring Semester Course Units Type Duration ECTS Consumer Behavior Insights Mandatory Semester 7,5 Market Research Mandatory Semester 7,5 Marketing Engineering and Analytics Mandatory Semester 7,5 Big Data for Marketing Elective Semester 7,5 Business Intelligence II Elective Semester 7,5 Customer Relationship Management Systems Elective Semester 7,5 Data Visualization Elective Semester 7,5 Data-driven decision making Elective Quarterly 4 Digital Transformation Elective Quarterly 3,5 Generative AI Applied to Marketing Elective Quarterly 3,5 Knowledge Management Elective Quarterly 3,5 Machine Learning in Marketing Elective Semester 7,5 Predictive Analytics in Marketing Elective Semester 7,5 Process Mining Powered By Nokia Elective Semester 7,5 Sampling Theory and Methods Elective Semester 7,5 Search Engine Optimization Elective Quarterly 4 Social Media Analytics Elective Semester 7,5 UX Research Elective Semester 7,5 Course UnitKeywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
+Metadata: {'course_name': 'Postgraduate Program In Marketing Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': 'a6aa08de-fcf1-4fc1-bcf9-a0e33a29f898', 'source': 'postgraduate-program-in-marketing-intelligence_Study plan.txt'}</t>
+  </si>
+  <si>
+    <t>What are the necessary relevant bachelor's degree I need to have in order to apply for the postgraduate program in geospatial data science?</t>
+  </si>
+  <si>
+    <t>Based on the information provided for the Postgraduate Program in Data Science for Finance, discount combinations are limited. Here's how they work:
+Discounts that CAN be combined:
+Financial discount (2.5%) + NOVA IMS alumni discount (20%) - These are explicitly stated as cumulative
+Discounts that CANNOT be combined:
+Company discounts (10% for 2 employees, 20% for 3+ employees) - Not cumulative with other discounts
+Ordem dos Engenheiros discount (15%) - Not cumulative with other financial discounts
+Available discounts:
+2.5% - Single payment discount
+20% - NOVA IMS alumni discount (for graduates of bachelor's, postgraduate, master's, or doctoral programs)
+10% - Companies financing 2 employees
+20% - Companies financing 3+ employees
+15% - Ordem dos Engenheiros members (extends to spouses and descendants)
+The maximum combined discount you can receive is 22.5% (2.5% financial + 20% alumni discount), but only if you're a NOVA IMS alumnus paying in full upfront.
+For specific questions about your eligibility or discount combinations, contact admissions@novaims.unl.pt.</t>
+  </si>
+  <si>
+    <t>Document 1:
+Postgraduate Program In Geospatial Data Science postgraduate Admissions and fees
+NOVA IMS is looking for excellent students who have the potential to become good technical staff and excellent managers. Qualities such as maturity, determination and motivation, both in the academic path as well in a professional career, are some of the required attributes. 3 rd Application phase From March 10 th and April 10 th , 2025. Admissions' Requirements The applicants to the Postgraduate in Geographical Sciences and Information Systems should hold a relevant bachelor's degree, or equivalent, in Statistics and Information Management, Geography, Economics, Engineering, Computer Sciences, Physics, Mathematics, Architecture, Urban and Regional Planning, or in other relevant scientific fields to be approved by the Scientific Council of NOVA IMS.We accept applications from those: Holding higher level conferred on the 1 st cycle of studies (undergraduates) under the Bologna legislation, by an adherent European country; Holding a foreign academic degree, approved by the Scientific Council of NOVA IMS, for achieving undergraduates' goals; Holding a relevant academic, professional and scientific curriculum, approved by the Scientific Council of NOVA IMS, for being able to conduct this study . How to Apply and Selection Process To apply, you need to access the NOVA IMS' Applications Portal and follow these steps: Fill in the form available in the user area, namely : Personal, academic and professional background; Upload your Curriculum Vitae (this is the only mandatory document for the application). Although it is not necessary to attach any other documents, the applicant has the option of including other documents that they consider relevant to enrich their application, such as a certificate of completion of their Bachelor's and/or Master's degree. Please note that if you are admitted, you will need to submit your Bachelor's and/or Master's degree completion certificate, or a certificate of attendance if you have not yet completed your degree, within one month; Choose the ; Present the goals and motivation for applying to the (limit 1,000 characters, including spaces); Pay the application fee . After this last step, the applicant will receive an email confirming their submitted application. The selection process is based on the analysis of academic and professional curriculum. The members of the Admissions’ Jury Panel may decide to hold an interview with all or some applicants - face-to-face or videoconference.
+Metadata: {'course_name': 'Postgraduate Program In Geospatial Data Science', 'degree': 'postgraduate', 'doc_type': 'main_info', 'id': '299e7384-fbf4-4cb3-9553-bd51c74bedea', 'section': 'Admissions and fees'}
+Document 2:
+Postgraduate Program In Geospatial Data Science postgraduate Introduction
+The Postgraduate in Geospatial Data Science provides the necessary skills for the analysis, modeling, and visualization of geographic information , and aims to train professionals for the role of artificial intelligence, programming, and data mining in the development of solutions to challenges and societal problems in the public and private sectors. This is developed in collaboration with UNIGIS , an international network that brings together the best schools in Geographic Information Systems and Science and it gives access to the Geospatial Intelligence (GEOINT) certificate accredited by the United States Geospatial Intelligence Foundation (USGIF). This Postgraduate lasts two semesters, taught in b-learning or e-learning formats , and it gives access to the Master Degree in Geographic Information Systems and Science . The applications for this are open between March 10 th and April 10 th , 2025. Accredited by United States Geospatial Intelligence Foundation Partner Entity UNIGIS Format E-Learning and B-Learning Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date September 2025 Who is it for? The Postgraduate in Geospatial Data Science aims to train managers and staff able to analyze, modeling, and visualize geographic information in environments with large amounts of data. This is taught in Portuguese and aims at everyone from Portuguese-speaking African countries but also Portugal, Brazil, Timor, and Portuguese communities all over the world, who is interested in continuing their studies by getting a Postgraduate diploma and/or a master's degree in a Portuguese university.
+Metadata: {'course_name': 'Postgraduate Program In Geospatial Data Science', 'degree': 'postgraduate', 'doc_type': 'main_info', 'id': '13898ac4-a1ec-49d9-9c29-50854d300c9c', 'section': 'Introduction'}</t>
+  </si>
+  <si>
+    <t>To apply for the Postgraduate in Geospatial Data Science, you must hold a relevant bachelor's degree, or equivalent, in Statistics and Information Management, Geography, Economics, Engineering, Computer Sciences, Physics, Mathematics, Architecture, Urban and Regional Planning, or in other relevant scientific fields to be approved by the Scientific Council of NOVA IMS.</t>
+  </si>
+  <si>
+    <t>The curriculum is structured as follows:
+*   Algorithm and Data Structures (TP - 67,5 | OT - 7,5)
+*   Introduction to Artificial Intelligence (TP - 67,5 | OT - 15)
+*   Introduction to Computational Thinking and Data Science (Mandatory TP - 45 | OT - 5)
+*   Mathematical Analysis I (T - 22,5 | PL - 45 | OT - 7,5)
+*   Statistics and Probability Distributions (TP - 67,5 | OT - 7,5)
+In the second semester, the curriculum is structured as follows:
+*   Algorithm and Data Structures (TP - 67,5 | OT - 7,5)
+*   Introduction to Artificial Intelligence (TP - 67,5 | OT - 15)
+*   Introduction to Computational Thinking and Data Science (Mandatory TP - 45 | OT - 5)
+*   Mathematical Analysis I (T - 22,5 | PL - 45 | OT - 7,5)
+*   Statistics and Probability Distributions (TP - 67,5 | OT - 7,5)
+Note: Some courses appear in both "mandatory" and "elective" categories due to being available in both semesters. These are included in both lists. For further details, please refer to the official course page.</t>
+  </si>
+  <si>
+    <t>How many ECTS are allocated to Big Data Analytics for Business in the postgraduate in digital enterprise management?</t>
+  </si>
+  <si>
+    <t>Big Data Analytics for Business has 4 ECTS.</t>
+  </si>
+  <si>
+    <t>Document 1:
+Postgraduate Program In Digital Enterprise Management postgraduate Second Semester 1 st year - Spring Semester Course Units Type Duration ECTS Big Data Analytics for Business Mandatory Quarterly 4 Cloud and Mobility Solutions Mandatory Quarterly 3,5 Digital Systems for Enterprise 4.0 Mandatory Semester 7,5 Digital Transformation Methodologies Mandatory Semester 7,5 Analysis of Discrete Data Elective Quarterly 4 Analysis of Variance Elective Quarterly 4 Architectures for Information Systems Elective Quarterly 3,5 Architectures for Information Systems Elective Quarterly 3,5 Big Data Analytics Elective Semester 7,5 Blockchain Elective Quarterly 4 Business Impact of Digital Projects Elective Quarterly 3,5 Business Intelligence II Elective Semester 7,5 Consumer Behavior Insights Elective Semester 7,5 Customer Relationship Management Systems Elective Semester 7,5 Customer Relationship Management Systems Elective Semester 7,5 Cybersecurity Elective Semester 7,5 Data Visualization Elective Semester 7,5 E-Business Elective Quarterly 4 Econometrics Methods Elective Semester 7,5 Emerging Technologies for Innovation Elective Quarterly 3,5 Enterprise Resource Management Systems Elective Semester 7,5 Generative Artificial Intelligence Elective Semester 7,5 Information Project Management Elective Quarterly 4 Information Project Management II Elective Quarterly 3,5 Innovation Management and Design Thinking Elective Semester 7,5 Innovation Management and Design Thinking Elective Semester 7,5 Leadership and People Management Elective Semester 7,5 Market and Credit Risk Management Elective Semester 7,5 Market Research Elective Semester 7,5 Marketing Engineering and Analytics Elective Semester 7,5 Predictive Analytics in Marketing Elective Semester 7,5 Predictive Methods of Data Mining Elective Semester 7,5 Process Mining Powered By Nokia Elective Semester 7,5 Process Mining Powered By Nokia Elective Semester 7,5 Risk Management Elective Semester 7,5 Sampling Theory and Methods Elective Semester 7,5 Search Engine Optimization Elective Quarterly 4 Social Media Analytics Elective Semester 7,5 Solvency Models Elective Semester 7,5Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
+Metadata: {'course_name': 'Postgraduate Program In Digital Enterprise Management', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': 'a0cc7727-c0e7-4cee-8c9b-6e162e1ba1b9', 'source': 'postgraduate-program-in-digital-enterprise-management_Study plan.txt'}
+Document 2:
+Postgraduate Program In Digital Enterprise Management postgraduate Introduction
+Organizations seeking leadership in competitive markets, where digital technologies play a strategic role, need managers and professionals with the skills to manage transformation projects in a holistic and strategic way, beyond mere technological modernization. The postgraduate in Digital Enterprise Management equips managers and professionals to master disruptive technologies such as artificial intelligence, machine learning, big data &amp; analytics, the internet of things, 3D printing, and cloud computing , enabling them to envision new business models, optimize existing processes, and strengthen organizational strategy, ensuring a competitive edge. Throughout the , participants acquire both theoretical and practical knowledge, developing the skills to integrate cutting-edge technologies with strategic factors such as organizational culture, change management, human resources development, and creation through process redefinition. This provides a strategic vision to address the complexities of digital transformation and enhance organizational success. The Digital Enterprise Management is recognized as one of the best in Western Europe for innovation and project management by Eduniversal, the international agency that annually publishes the ranking of the world’s best master's and MBAs. The applications for this are open between March 10 th and April 10 th , 2025. Partner Entities Google IDC SAP Format After Working Hours Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date February 2026 EDUNIVERSAL Ranked as one of the best in Western Europe in Innovation and Project Management , according to Eduniversal Who is it for? The Postgraduate in Digital Enterprise Management is aimed at managers and professionals who wish to deepen their project management skills in business transformation, based in new digitalization models and information systems. Among the potential candidates we highlight the 1 st and 2 nd level managers of medium-sized and big enterprises, systems integrators and consulting companies, and IT and IS professionals.
+Metadata: {'degree': 'postgraduate', 'doc_type': 'main_info', 'course_name': 'Postgraduate Program In Digital Enterprise Management', 'section': 'Introduction', 'id': 'c6d95d19-cb39-4920-96de-1a1ea80a5585'}</t>
+  </si>
+  <si>
+    <t>How much does the entry exams subjects value to enter the Bachelors in Data Science?</t>
+  </si>
+  <si>
+    <t>The entry exam subjects value is 50%.</t>
+  </si>
+  <si>
+    <t>No, the Master Degree in Information Management, with a specialization in Information Systems Management, is aimed at professionals who already have roles in Information Systems (IS).</t>
+  </si>
+  <si>
+    <t>What are the entry requeirements for the postgraduate program in culinary?</t>
+  </si>
+  <si>
+    <t>Unfortunately, I do not have information on the entry requirements for the postgraduate program in culinary. Please refer to the official website or contact NOVA IMS directly for further information.</t>
+  </si>
+  <si>
+    <t>Average Answer Relevance score</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1255,11 +1247,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1562,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1569,7 @@
     <col min="6" max="6" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,10 +1583,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1606,11 +1602,14 @@
       <c r="D2">
         <v>317.66021513938898</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1623,11 +1622,14 @@
       <c r="D3">
         <v>319.54485774040222</v>
       </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1640,11 +1642,14 @@
       <c r="D4">
         <v>345.88594245910639</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1657,11 +1662,14 @@
       <c r="D5">
         <v>659.47100734710705</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="5">
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1674,11 +1682,14 @@
       <c r="D6">
         <v>659.47100734710705</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.85000000000000009</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="5">
+        <v>0.76666666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1691,11 +1702,14 @@
       <c r="D7">
         <v>292.85006475448608</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1708,11 +1722,14 @@
       <c r="D8">
         <v>225.3591685295105</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1725,728 +1742,831 @@
       <c r="D9">
         <v>192.51909828186041</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="6">
+        <v>307.37226128578192</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F10">
+        <v>0.76666666666666661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4">
-        <v>307.37226128578192</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
       <c r="D11">
         <v>195.82497501373291</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
       </c>
       <c r="D12">
         <v>230.8736712932587</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
       <c r="D13">
         <v>281.88537764549261</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="6">
+        <v>233.63368654251099</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.93333333333333324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C15" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4">
-        <v>233.63368654251099</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
       </c>
       <c r="D15">
         <v>221.96099662780759</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>0.93333333333333324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>210.50103831291199</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>260.93000411987299</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>211.86878299713129</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>249.9121427536011</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>234.9885196685791</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>373.91687345504761</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.64999999999999991</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>264.07967972755432</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="F22">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="6">
         <v>253.69024276733401</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>378.54112696647638</v>
       </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <v>259.70324110984802</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>184.75640034675601</v>
       </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D27">
         <v>276.00242161750788</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="F27">
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="6">
+        <v>371.96767163276672</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.3666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="6">
+        <v>101.855338335037</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="D30">
+        <v>318.29634523391718</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B31" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="4">
-        <v>371.96767163276672</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>312.70777916908298</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F31">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>291.68158364295959</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="4">
-        <v>4642.2160742282867</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D33" s="6">
+        <v>312.70777916908298</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F33">
+        <v>0.76666666666666661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="4">
-        <v>201.8553383350372</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D34" s="6">
+        <v>474.52360963821411</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>84</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>86</v>
       </c>
-      <c r="D31">
-        <v>318.29634523391718</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32">
-        <v>312.70777916908298</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33">
-        <v>291.68158364295959</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="4">
-        <v>312.70777916908298</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="4">
-        <v>474.52360963821411</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>155</v>
+      <c r="D35">
+        <v>415.41711759567261</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.72500000000000009</v>
+      </c>
+      <c r="F35">
+        <v>0.9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D36">
-        <v>415.41711759567261</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0.72500000000000009</v>
+        <v>180.80852031707761</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D37">
-        <v>180.80852031707761</v>
-      </c>
-      <c r="E37" s="6">
+        <v>262.38403749465942</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D38">
-        <v>262.38403749465942</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
+        <v>213.9114000797272</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D39">
-        <v>213.9114000797272</v>
-      </c>
-      <c r="E39" s="6">
+        <v>142.21909928321841</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D40">
-        <v>142.21909928321841</v>
-      </c>
-      <c r="E40" s="6">
+        <v>167.13434815406799</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D41">
-        <v>167.13434815406799</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
+        <v>665.94325494766235</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42">
-        <v>665.94325494766235</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="A42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="4">
+        <v>306.19597792625427</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="4">
-        <v>306.19597792625427</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>149</v>
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43">
+        <v>431.03227567672729</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0.93333333333333324</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D44">
-        <v>431.03227567672729</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1</v>
+        <v>202.900181055069</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D45">
-        <v>202.900181055069</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1</v>
+        <v>218.2550342082977</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D46">
-        <v>218.2550342082977</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1</v>
+        <v>258.20391964912409</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F46">
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D47">
-        <v>258.20391964912409</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0.9</v>
+        <v>310.93609523773188</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D48">
-        <v>310.93609523773188</v>
-      </c>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311.48584556579601</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D49">
+        <v>223.97310709953311</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50">
         <v>311.48584556579601</v>
       </c>
-      <c r="E49" s="6">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50">
-        <v>223.97310709953311</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51">
-        <v>311.48584556579601</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="E50" s="5">
         <v>0.875</v>
+      </c>
+      <c r="F50">
+        <v>0.73333333333333328</v>
       </c>
     </row>
   </sheetData>

--- a/model/src/rag_zero_shot_prompting_medium_Llama3B_results.xlsx
+++ b/model/src/rag_zero_shot_prompting_medium_Llama3B_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83528FE-2AA1-4A67-A6AB-BD80EFD39229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621377B4-8835-4ED5-9B9E-22130D7CF5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1555,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2567,6 +2567,12 @@
       </c>
       <c r="F50">
         <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <f>AVERAGE(D2:D50)</f>
+        <v>294.88222388831934</v>
       </c>
     </row>
   </sheetData>
